--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15900" windowHeight="6330"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14790" windowHeight="6420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Global" sheetId="2" r:id="rId1"/>
     <sheet name="Master" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Login" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Sno</t>
   </si>
@@ -46,16 +47,36 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>shilpinagpal25@gmail.com</t>
+  </si>
+  <si>
+    <t>shilpi25#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -78,18 +99,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,6 +197,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -202,6 +232,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -377,20 +408,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -398,7 +429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -412,21 +443,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -454,31 +485,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -490,13 +521,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>